--- a/biology/Biochimie/Opine/Opine.xlsx
+++ b/biology/Biochimie/Opine/Opine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les opines sont des composés  spécifiques d'une tumeur végétale, la galle du collet ou crown gall, ou le broussin de vigne, induite par des bactéries pathogènes du genre Agrobacterium. Les racines induites sous l'action d'Agrobacterium rhizogenes produisent aussi des opines.
 Les opines résultent le plus souvent de la condensation d'un acide aminé et d'un acide cétonique, ou d'un acide aminé et d'un sucre. Une vingtaine d'opines ont été identifiées. Toutes ces opines ne sont pas présentes en même temps dans une tumeur donnée. Les plus connues des opines sont l'octopine (aussi trouvée dans les muscles du poulpe ou octopus, d'où le nom, lors de la contraction anaérobie) et la nopaline (trouvée dans des tumeurs de figuiers de barbarie ou nopal). 
